--- a/data/pca/factorExposure/factorExposure_2014-10-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.01609155914054439</v>
+        <v>-0.01811974581444347</v>
       </c>
       <c r="C2">
-        <v>-0.1009497335111469</v>
+        <v>-0.07421396075196225</v>
       </c>
       <c r="D2">
-        <v>0.02058482422645634</v>
+        <v>0.02409230613722892</v>
       </c>
       <c r="E2">
-        <v>0.1752308835558264</v>
+        <v>0.06187047673581231</v>
       </c>
       <c r="F2">
-        <v>0.2007625437829585</v>
+        <v>0.1637553108363028</v>
       </c>
       <c r="G2">
-        <v>0.09697327127522624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.02630533239563175</v>
+      </c>
+      <c r="H2">
+        <v>-0.04865803742619004</v>
+      </c>
+      <c r="I2">
+        <v>0.003327852398787749</v>
+      </c>
+      <c r="J2">
+        <v>-0.1783309883493056</v>
+      </c>
+      <c r="K2">
+        <v>-0.1179829017558237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.03982145054696232</v>
+        <v>-0.02158367432690303</v>
       </c>
       <c r="C4">
-        <v>-0.1612683890749432</v>
+        <v>-0.1511445920768001</v>
       </c>
       <c r="D4">
-        <v>-0.02150285277140152</v>
+        <v>0.05514379697545168</v>
       </c>
       <c r="E4">
-        <v>0.08564966215056805</v>
+        <v>-0.03746755709956919</v>
       </c>
       <c r="F4">
-        <v>-0.05497218793188066</v>
+        <v>0.08891113646991947</v>
       </c>
       <c r="G4">
-        <v>0.02335451178920905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.009019710850902347</v>
+      </c>
+      <c r="H4">
+        <v>-0.109427952694542</v>
+      </c>
+      <c r="I4">
+        <v>-0.01268052483162146</v>
+      </c>
+      <c r="J4">
+        <v>-0.1496293488946387</v>
+      </c>
+      <c r="K4">
+        <v>0.05606629486771341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03750698088572275</v>
+        <v>-0.04074527047767303</v>
       </c>
       <c r="C6">
-        <v>-0.0669320376187176</v>
+        <v>-0.08251707304651409</v>
       </c>
       <c r="D6">
-        <v>-0.03201550856966673</v>
+        <v>0.0179655242682055</v>
       </c>
       <c r="E6">
-        <v>0.07377416757433634</v>
+        <v>0.03964140491531177</v>
       </c>
       <c r="F6">
-        <v>0.01260074017393265</v>
+        <v>0.04759168206033194</v>
       </c>
       <c r="G6">
-        <v>-0.01038819700675253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0393758707915642</v>
+      </c>
+      <c r="H6">
+        <v>-0.03127183414210638</v>
+      </c>
+      <c r="I6">
+        <v>0.0823624353977969</v>
+      </c>
+      <c r="J6">
+        <v>-0.05070868902722263</v>
+      </c>
+      <c r="K6">
+        <v>-0.05139964487165025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.01177625421854752</v>
+        <v>-0.01266958343991449</v>
       </c>
       <c r="C7">
-        <v>-0.0516531032324595</v>
+        <v>-0.06709532145719217</v>
       </c>
       <c r="D7">
-        <v>-0.007852958143915192</v>
+        <v>0.01659074558856619</v>
       </c>
       <c r="E7">
-        <v>0.07160081230639163</v>
+        <v>-0.02299220531347314</v>
       </c>
       <c r="F7">
-        <v>-0.01530518966892391</v>
+        <v>0.01910868179251955</v>
       </c>
       <c r="G7">
-        <v>0.03089009382288094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.05857930538949382</v>
+      </c>
+      <c r="H7">
+        <v>-0.1003271126573402</v>
+      </c>
+      <c r="I7">
+        <v>0.01245561442218696</v>
+      </c>
+      <c r="J7">
+        <v>-0.03977350815994431</v>
+      </c>
+      <c r="K7">
+        <v>-0.01666893870900812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.001355723529727841</v>
+        <v>0.0007298942565052486</v>
       </c>
       <c r="C8">
-        <v>-0.07307850116821533</v>
+        <v>-0.06801923272323926</v>
       </c>
       <c r="D8">
-        <v>-0.01708883401894088</v>
+        <v>0.03947647955376517</v>
       </c>
       <c r="E8">
-        <v>0.08455460950614725</v>
+        <v>0.002408422538319454</v>
       </c>
       <c r="F8">
-        <v>0.02073657059231893</v>
+        <v>0.06610753507139254</v>
       </c>
       <c r="G8">
-        <v>0.06297601584606348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.0226867762499742</v>
+      </c>
+      <c r="H8">
+        <v>-0.05525218768538181</v>
+      </c>
+      <c r="I8">
+        <v>-0.002085008235578747</v>
+      </c>
+      <c r="J8">
+        <v>-0.009243841701629152</v>
+      </c>
+      <c r="K8">
+        <v>0.002672308338058466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.02123728780360435</v>
+        <v>-0.01456895800239096</v>
       </c>
       <c r="C9">
-        <v>-0.1345949488263234</v>
+        <v>-0.1154588986754688</v>
       </c>
       <c r="D9">
-        <v>-0.02420960667932502</v>
+        <v>0.03698477633055357</v>
       </c>
       <c r="E9">
-        <v>0.05146277328003838</v>
+        <v>-0.00776130837286102</v>
       </c>
       <c r="F9">
-        <v>-0.02881032497087888</v>
+        <v>0.04087047074421793</v>
       </c>
       <c r="G9">
-        <v>-0.01833058410106216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.003766115042056271</v>
+      </c>
+      <c r="H9">
+        <v>-0.09528234083611631</v>
+      </c>
+      <c r="I9">
+        <v>0.02141692560191269</v>
+      </c>
+      <c r="J9">
+        <v>-0.07439400200650742</v>
+      </c>
+      <c r="K9">
+        <v>0.05181767627264172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2697854458456435</v>
+        <v>-0.2497104667089163</v>
       </c>
       <c r="C10">
-        <v>0.1196966010014989</v>
+        <v>0.1041091004055052</v>
       </c>
       <c r="D10">
-        <v>0.02448136299066248</v>
+        <v>-0.003484022822047251</v>
       </c>
       <c r="E10">
-        <v>-0.03196327985251984</v>
+        <v>0.01102409152597718</v>
       </c>
       <c r="F10">
-        <v>-0.03176768690994348</v>
+        <v>-0.003035059551200541</v>
       </c>
       <c r="G10">
-        <v>-0.02025749031617625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01924427755634076</v>
+      </c>
+      <c r="H10">
+        <v>-0.06537027976327581</v>
+      </c>
+      <c r="I10">
+        <v>-0.1695039714825343</v>
+      </c>
+      <c r="J10">
+        <v>0.08823055585702515</v>
+      </c>
+      <c r="K10">
+        <v>0.05612683503075658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01429733439748123</v>
+        <v>-0.01633345350590805</v>
       </c>
       <c r="C11">
-        <v>-0.06950665590526436</v>
+        <v>-0.08368172470988845</v>
       </c>
       <c r="D11">
-        <v>-0.01756788579152793</v>
+        <v>0.0295741138052525</v>
       </c>
       <c r="E11">
-        <v>0.02639272225846427</v>
+        <v>-0.01145951986286268</v>
       </c>
       <c r="F11">
-        <v>-0.05639608231481488</v>
+        <v>-0.003055230178640533</v>
       </c>
       <c r="G11">
-        <v>-0.03825550091952373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02245387854019955</v>
+      </c>
+      <c r="H11">
+        <v>-0.03640572810847481</v>
+      </c>
+      <c r="I11">
+        <v>0.01463681549964804</v>
+      </c>
+      <c r="J11">
+        <v>0.02229183530861746</v>
+      </c>
+      <c r="K11">
+        <v>0.05216432485906273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.009625695360073716</v>
+        <v>-0.01621168615123972</v>
       </c>
       <c r="C12">
-        <v>-0.06202658096969994</v>
+        <v>-0.06249521913699568</v>
       </c>
       <c r="D12">
-        <v>-0.02044192559789496</v>
+        <v>0.01776639586819218</v>
       </c>
       <c r="E12">
-        <v>0.01802257637463604</v>
+        <v>0.01492475136404177</v>
       </c>
       <c r="F12">
-        <v>-0.02839641991661326</v>
+        <v>-0.005378715165215396</v>
       </c>
       <c r="G12">
-        <v>-0.06458293960343033</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.03322462974469746</v>
+      </c>
+      <c r="H12">
+        <v>-0.0340234857607329</v>
+      </c>
+      <c r="I12">
+        <v>0.01098105903625103</v>
+      </c>
+      <c r="J12">
+        <v>0.008365156455923319</v>
+      </c>
+      <c r="K12">
+        <v>0.04971383655383001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.02490730838330868</v>
+        <v>-0.006014108298535457</v>
       </c>
       <c r="C13">
-        <v>-0.1031590105678025</v>
+        <v>-0.1131445391256307</v>
       </c>
       <c r="D13">
-        <v>-0.04061517293644711</v>
+        <v>0.0348217729732587</v>
       </c>
       <c r="E13">
-        <v>0.1280026688089409</v>
+        <v>0.10877250744671</v>
       </c>
       <c r="F13">
-        <v>-0.03380723152993792</v>
+        <v>0.1234970281627068</v>
       </c>
       <c r="G13">
-        <v>-0.1158931835114318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1095570772681563</v>
+      </c>
+      <c r="H13">
+        <v>-0.1145896115640649</v>
+      </c>
+      <c r="I13">
+        <v>-0.206952035422771</v>
+      </c>
+      <c r="J13">
+        <v>0.1930968956814731</v>
+      </c>
+      <c r="K13">
+        <v>-0.06685782818146971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01641018506456805</v>
+        <v>-0.01870075659041687</v>
       </c>
       <c r="C14">
-        <v>-0.05758264296061073</v>
+        <v>-0.07353910032452313</v>
       </c>
       <c r="D14">
-        <v>-0.01215877482721466</v>
+        <v>0.03815750314632697</v>
       </c>
       <c r="E14">
-        <v>0.04719887944401464</v>
+        <v>0.03833294104636337</v>
       </c>
       <c r="F14">
-        <v>-0.002551219627984636</v>
+        <v>0.02281983886637358</v>
       </c>
       <c r="G14">
-        <v>-0.04556860466668936</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.07812567978035069</v>
+      </c>
+      <c r="H14">
+        <v>-0.212658753124508</v>
+      </c>
+      <c r="I14">
+        <v>0.04618562533187312</v>
+      </c>
+      <c r="J14">
+        <v>0.1261529690897573</v>
+      </c>
+      <c r="K14">
+        <v>-0.138240617813546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.007890713835490906</v>
+        <v>-0.001420360492102676</v>
       </c>
       <c r="C15">
-        <v>-0.08333894914101028</v>
+        <v>-0.07868540366971585</v>
       </c>
       <c r="D15">
-        <v>-0.01598264711664862</v>
+        <v>0.02775144072587039</v>
       </c>
       <c r="E15">
-        <v>0.1073845273198486</v>
+        <v>-0.007803394536924886</v>
       </c>
       <c r="F15">
-        <v>-0.01455119137912893</v>
+        <v>0.0398453500505953</v>
       </c>
       <c r="G15">
-        <v>-0.004518057145856615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.05110213548815096</v>
+      </c>
+      <c r="H15">
+        <v>-0.07797355245764107</v>
+      </c>
+      <c r="I15">
+        <v>0.02889609008329215</v>
+      </c>
+      <c r="J15">
+        <v>0.05600157739292245</v>
+      </c>
+      <c r="K15">
+        <v>-0.009804224019989111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01429262015635648</v>
+        <v>-0.01610785999462239</v>
       </c>
       <c r="C16">
-        <v>-0.06545662009464938</v>
+        <v>-0.06768285656705339</v>
       </c>
       <c r="D16">
-        <v>-0.008171436364678401</v>
+        <v>0.02086645149922023</v>
       </c>
       <c r="E16">
-        <v>0.02152965802501966</v>
+        <v>-0.005531327453808112</v>
       </c>
       <c r="F16">
-        <v>-0.03043304353520159</v>
+        <v>0.0002602896827199364</v>
       </c>
       <c r="G16">
-        <v>-0.03532387627944211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02066950776720832</v>
+      </c>
+      <c r="H16">
+        <v>-0.02687810471300839</v>
+      </c>
+      <c r="I16">
+        <v>0.0138606252847819</v>
+      </c>
+      <c r="J16">
+        <v>0.007747809765377247</v>
+      </c>
+      <c r="K16">
+        <v>0.03543557154320179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.0149595425967473</v>
+        <v>-0.01374648519070417</v>
       </c>
       <c r="C20">
-        <v>-0.08318955087614222</v>
+        <v>-0.08408007254516599</v>
       </c>
       <c r="D20">
-        <v>-0.0001298506373354882</v>
+        <v>0.01596003151490057</v>
       </c>
       <c r="E20">
-        <v>0.05339689072423068</v>
+        <v>-0.02933203498796761</v>
       </c>
       <c r="F20">
-        <v>-0.07121488873819172</v>
+        <v>0.007525298482214164</v>
       </c>
       <c r="G20">
-        <v>-0.04465352697056718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05150845457000437</v>
+      </c>
+      <c r="H20">
+        <v>-0.07175935294195813</v>
+      </c>
+      <c r="I20">
+        <v>0.02250020231428438</v>
+      </c>
+      <c r="J20">
+        <v>-0.01496708206254039</v>
+      </c>
+      <c r="K20">
+        <v>0.007163703785297047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.01171779280890042</v>
+        <v>-0.01526119751704396</v>
       </c>
       <c r="C21">
-        <v>-0.09981701859495817</v>
+        <v>-0.08414264695247924</v>
       </c>
       <c r="D21">
-        <v>0.0271836025577204</v>
+        <v>0.02051938570834486</v>
       </c>
       <c r="E21">
-        <v>0.03193688413073621</v>
+        <v>0.08126557284351679</v>
       </c>
       <c r="F21">
-        <v>0.03593570456666226</v>
+        <v>0.02473774840272001</v>
       </c>
       <c r="G21">
-        <v>-0.04150255123686733</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.001188198661390835</v>
+      </c>
+      <c r="H21">
+        <v>-0.1537761927526152</v>
+      </c>
+      <c r="I21">
+        <v>-0.03481988577199042</v>
+      </c>
+      <c r="J21">
+        <v>0.04571069242704641</v>
+      </c>
+      <c r="K21">
+        <v>0.01696548397507432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.05570673786591844</v>
+        <v>-0.006728443397092622</v>
       </c>
       <c r="C22">
-        <v>-0.147163169653629</v>
+        <v>-0.1505552837858998</v>
       </c>
       <c r="D22">
-        <v>0.1119353027953508</v>
+        <v>0.01075095097850263</v>
       </c>
       <c r="E22">
-        <v>0.2627559218994837</v>
+        <v>-0.08850485361513945</v>
       </c>
       <c r="F22">
-        <v>0.03982288699829395</v>
+        <v>0.4916660155614598</v>
       </c>
       <c r="G22">
-        <v>0.2948309644380129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.09090476539870376</v>
+      </c>
+      <c r="H22">
+        <v>0.3232584467603091</v>
+      </c>
+      <c r="I22">
+        <v>-0.04952171060230325</v>
+      </c>
+      <c r="J22">
+        <v>0.2203942499044254</v>
+      </c>
+      <c r="K22">
+        <v>0.04083620483794834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.05541231028351803</v>
+        <v>-0.01167809638641599</v>
       </c>
       <c r="C23">
-        <v>-0.1477096848148098</v>
+        <v>-0.1542994005409294</v>
       </c>
       <c r="D23">
-        <v>0.1118066367553395</v>
+        <v>0.009106357324633311</v>
       </c>
       <c r="E23">
-        <v>0.2594820669510389</v>
+        <v>-0.08418821597546269</v>
       </c>
       <c r="F23">
-        <v>0.03928011652305863</v>
+        <v>0.4763181140534162</v>
       </c>
       <c r="G23">
-        <v>0.2927907875295555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.08609678391411034</v>
+      </c>
+      <c r="H23">
+        <v>0.3001400038733073</v>
+      </c>
+      <c r="I23">
+        <v>-0.04149973225282882</v>
+      </c>
+      <c r="J23">
+        <v>0.2083466476932161</v>
+      </c>
+      <c r="K23">
+        <v>0.04932785674361934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.008225403114816511</v>
+        <v>-0.01650831329900469</v>
       </c>
       <c r="C24">
-        <v>-0.078075790031014</v>
+        <v>-0.07646044206963912</v>
       </c>
       <c r="D24">
-        <v>-0.03248020702564177</v>
+        <v>0.03433857346842357</v>
       </c>
       <c r="E24">
-        <v>0.02507725065182255</v>
+        <v>-0.008602502885070822</v>
       </c>
       <c r="F24">
-        <v>-0.04241849977182949</v>
+        <v>-0.002467813056428316</v>
       </c>
       <c r="G24">
-        <v>-0.05009500521624135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03073996548512653</v>
+      </c>
+      <c r="H24">
+        <v>-0.04516879919090745</v>
+      </c>
+      <c r="I24">
+        <v>0.01368286276951748</v>
+      </c>
+      <c r="J24">
+        <v>0.01056406547226218</v>
+      </c>
+      <c r="K24">
+        <v>0.05216765332308321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.01162844754360258</v>
+        <v>-0.02118223413594731</v>
       </c>
       <c r="C25">
-        <v>-0.07087252369872868</v>
+        <v>-0.07340466219785302</v>
       </c>
       <c r="D25">
-        <v>-0.008801498097116736</v>
+        <v>0.02300907864900809</v>
       </c>
       <c r="E25">
-        <v>0.02163775070367088</v>
+        <v>-0.009893983824146938</v>
       </c>
       <c r="F25">
-        <v>-0.04862842735800353</v>
+        <v>0.0001749997789083946</v>
       </c>
       <c r="G25">
-        <v>-0.04669032059439753</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03053519017932375</v>
+      </c>
+      <c r="H25">
+        <v>-0.03637225665623147</v>
+      </c>
+      <c r="I25">
+        <v>0.001438570842701217</v>
+      </c>
+      <c r="J25">
+        <v>0.02545164411383452</v>
+      </c>
+      <c r="K25">
+        <v>0.03954612381960837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01600374335106348</v>
+        <v>-0.02494767251180927</v>
       </c>
       <c r="C26">
-        <v>-0.06298311010994706</v>
+        <v>-0.06661129314708614</v>
       </c>
       <c r="D26">
-        <v>-0.03314592450899954</v>
+        <v>0.0521173794375657</v>
       </c>
       <c r="E26">
-        <v>0.02434257821659989</v>
+        <v>-0.002050052625407014</v>
       </c>
       <c r="F26">
-        <v>0.00363756499791158</v>
+        <v>-0.008416332399012188</v>
       </c>
       <c r="G26">
-        <v>-0.0320749090549762</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.002358218483505775</v>
+      </c>
+      <c r="H26">
+        <v>-0.1076415270696127</v>
+      </c>
+      <c r="I26">
+        <v>0.05192124311496323</v>
+      </c>
+      <c r="J26">
+        <v>-0.1016166670477526</v>
+      </c>
+      <c r="K26">
+        <v>0.08012253020772232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3504180339438307</v>
+        <v>-0.3197348750602922</v>
       </c>
       <c r="C28">
-        <v>0.1276113049431578</v>
+        <v>0.1152474264847948</v>
       </c>
       <c r="D28">
-        <v>0.02281944893493169</v>
+        <v>-0.02670172165015193</v>
       </c>
       <c r="E28">
-        <v>-0.1012650217759359</v>
+        <v>0.007350109565575229</v>
       </c>
       <c r="F28">
-        <v>0.03252860474270271</v>
+        <v>0.01474849930142589</v>
       </c>
       <c r="G28">
-        <v>-0.01304639270514369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.115255323898679</v>
+      </c>
+      <c r="H28">
+        <v>-0.07892599195882036</v>
+      </c>
+      <c r="I28">
+        <v>-0.197804584853907</v>
+      </c>
+      <c r="J28">
+        <v>-0.02444123055595096</v>
+      </c>
+      <c r="K28">
+        <v>-0.03225603908514963</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01884232092812354</v>
+        <v>-0.01397166188894957</v>
       </c>
       <c r="C29">
-        <v>-0.05541461914435056</v>
+        <v>-0.07635210742711167</v>
       </c>
       <c r="D29">
-        <v>-0.0225790054297558</v>
+        <v>0.04227854379872689</v>
       </c>
       <c r="E29">
-        <v>0.07734585479107756</v>
+        <v>0.04424954353697512</v>
       </c>
       <c r="F29">
-        <v>-0.02941062263969607</v>
+        <v>0.04132352341235188</v>
       </c>
       <c r="G29">
-        <v>-0.06873724644872957</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1271723561577399</v>
+      </c>
+      <c r="H29">
+        <v>-0.3017678821677461</v>
+      </c>
+      <c r="I29">
+        <v>0.05398998595939825</v>
+      </c>
+      <c r="J29">
+        <v>0.1906908577668982</v>
+      </c>
+      <c r="K29">
+        <v>-0.2539864903802118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.04160860984295685</v>
+        <v>-0.02815052938254957</v>
       </c>
       <c r="C30">
-        <v>-0.1780765045842506</v>
+        <v>-0.1518499981992384</v>
       </c>
       <c r="D30">
-        <v>-0.0417759512575332</v>
+        <v>0.05026633087752869</v>
       </c>
       <c r="E30">
-        <v>0.06857067155982328</v>
+        <v>-0.01691493887207908</v>
       </c>
       <c r="F30">
-        <v>-0.009760393257380753</v>
+        <v>0.06923491446056249</v>
       </c>
       <c r="G30">
-        <v>0.03811235244223185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.005590331640760704</v>
+      </c>
+      <c r="H30">
+        <v>-0.01758703911257381</v>
+      </c>
+      <c r="I30">
+        <v>0.04279805087024318</v>
+      </c>
+      <c r="J30">
+        <v>-0.0937838822374791</v>
+      </c>
+      <c r="K30">
+        <v>0.03617968955585926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.001592290404890987</v>
+        <v>-0.01267692244979958</v>
       </c>
       <c r="C31">
-        <v>-0.09271442699288751</v>
+        <v>-0.09547809708729246</v>
       </c>
       <c r="D31">
-        <v>-0.03630031776392399</v>
+        <v>0.03617332240097174</v>
       </c>
       <c r="E31">
-        <v>-0.05097184267727269</v>
+        <v>0.00279536126405101</v>
       </c>
       <c r="F31">
-        <v>0.01458598545446082</v>
+        <v>-0.01935612073645819</v>
       </c>
       <c r="G31">
-        <v>-0.002518789610097475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.05499270328004435</v>
+      </c>
+      <c r="H31">
+        <v>-0.03401666154998136</v>
+      </c>
+      <c r="I31">
+        <v>0.008026825564387777</v>
+      </c>
+      <c r="J31">
+        <v>0.03143489488749067</v>
+      </c>
+      <c r="K31">
+        <v>0.04641276838578038</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03455719104544532</v>
+        <v>-0.0235440217656557</v>
       </c>
       <c r="C32">
-        <v>-0.08255857642711772</v>
+        <v>-0.06428119984168428</v>
       </c>
       <c r="D32">
-        <v>0.01116820953282445</v>
+        <v>0.01705035974952742</v>
       </c>
       <c r="E32">
-        <v>0.1640416177077242</v>
+        <v>0.06566305052560137</v>
       </c>
       <c r="F32">
-        <v>0.04386799820243634</v>
+        <v>0.1159602710640877</v>
       </c>
       <c r="G32">
-        <v>-0.02877931591046251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05241352877659981</v>
+      </c>
+      <c r="H32">
+        <v>-0.1767365673427542</v>
+      </c>
+      <c r="I32">
+        <v>-0.2342512052704269</v>
+      </c>
+      <c r="J32">
+        <v>-0.001596748064808143</v>
+      </c>
+      <c r="K32">
+        <v>-0.1749026886942466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01797189529432822</v>
+        <v>-0.01738027508869391</v>
       </c>
       <c r="C33">
-        <v>-0.09050469773709818</v>
+        <v>-0.1085720532583789</v>
       </c>
       <c r="D33">
-        <v>-0.03941940525682839</v>
+        <v>0.03580396222411514</v>
       </c>
       <c r="E33">
-        <v>0.03795839324225273</v>
+        <v>-0.007491030013137237</v>
       </c>
       <c r="F33">
-        <v>-0.01309213379387392</v>
+        <v>0.02492122484641722</v>
       </c>
       <c r="G33">
-        <v>-0.02856713521533846</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03090872787529384</v>
+      </c>
+      <c r="H33">
+        <v>-0.06113233269137879</v>
+      </c>
+      <c r="I33">
+        <v>-0.01188043024683615</v>
+      </c>
+      <c r="J33">
+        <v>0.001927616521834173</v>
+      </c>
+      <c r="K33">
+        <v>0.0308665861456864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.00445875501246497</v>
+        <v>-0.01609014789076859</v>
       </c>
       <c r="C34">
-        <v>-0.05530245507870164</v>
+        <v>-0.05441501057588724</v>
       </c>
       <c r="D34">
-        <v>-0.0164955989188595</v>
+        <v>0.01763330352352577</v>
       </c>
       <c r="E34">
-        <v>0.02504181332662329</v>
+        <v>0.0008429245626975868</v>
       </c>
       <c r="F34">
-        <v>-0.01662799913045693</v>
+        <v>-0.002926920263491582</v>
       </c>
       <c r="G34">
-        <v>-0.03965375959844461</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02509104839564146</v>
+      </c>
+      <c r="H34">
+        <v>-0.008878084558141344</v>
+      </c>
+      <c r="I34">
+        <v>0.003721848645773223</v>
+      </c>
+      <c r="J34">
+        <v>0.009818611828959326</v>
+      </c>
+      <c r="K34">
+        <v>0.04438761125979071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003812521202239188</v>
+        <v>-0.008238674167213177</v>
       </c>
       <c r="C35">
-        <v>-0.01202779594260592</v>
+        <v>-0.03745711796507235</v>
       </c>
       <c r="D35">
-        <v>-0.0003448808534943405</v>
+        <v>0.01577802830660478</v>
       </c>
       <c r="E35">
-        <v>0.02117839162607029</v>
+        <v>0.008540623127675499</v>
       </c>
       <c r="F35">
-        <v>-0.01203339205060779</v>
+        <v>0.01569063658582587</v>
       </c>
       <c r="G35">
-        <v>-0.01603021271857435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04778015901490681</v>
+      </c>
+      <c r="H35">
+        <v>-0.1573076450731785</v>
+      </c>
+      <c r="I35">
+        <v>0.008656572048830599</v>
+      </c>
+      <c r="J35">
+        <v>0.1533463595437717</v>
+      </c>
+      <c r="K35">
+        <v>-0.1196946429597288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01161693885238873</v>
+        <v>-0.01545503422111405</v>
       </c>
       <c r="C36">
-        <v>-0.05188851539498947</v>
+        <v>-0.05117336510609696</v>
       </c>
       <c r="D36">
-        <v>-0.03830836106359065</v>
+        <v>0.04110534823723098</v>
       </c>
       <c r="E36">
-        <v>0.02606182476132934</v>
+        <v>-0.002038681533811349</v>
       </c>
       <c r="F36">
-        <v>-0.00453302238882826</v>
+        <v>0.0106114231399168</v>
       </c>
       <c r="G36">
-        <v>-0.01790389965609427</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.008016197230356672</v>
+      </c>
+      <c r="H36">
+        <v>-0.06859928510873417</v>
+      </c>
+      <c r="I36">
+        <v>0.02051155550993283</v>
+      </c>
+      <c r="J36">
+        <v>-0.03869150496069174</v>
+      </c>
+      <c r="K36">
+        <v>0.05822565580213538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02365058161170282</v>
+        <v>-0.01264398418606869</v>
       </c>
       <c r="C38">
-        <v>-0.05001828413584271</v>
+        <v>-0.0636345948377694</v>
       </c>
       <c r="D38">
-        <v>-0.02434222256171755</v>
+        <v>0.03150642449492227</v>
       </c>
       <c r="E38">
-        <v>0.03505355605973882</v>
+        <v>-0.03340692912737222</v>
       </c>
       <c r="F38">
-        <v>-0.02418086539800807</v>
+        <v>0.02349730452375696</v>
       </c>
       <c r="G38">
-        <v>0.002592162933454423</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.008379726596499331</v>
+      </c>
+      <c r="H38">
+        <v>-0.08120858412457815</v>
+      </c>
+      <c r="I38">
+        <v>-0.05294525878192065</v>
+      </c>
+      <c r="J38">
+        <v>0.02434309558395546</v>
+      </c>
+      <c r="K38">
+        <v>0.07402712385587892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.007783412496340165</v>
+        <v>-0.01686383200062151</v>
       </c>
       <c r="C39">
-        <v>-0.1394739191983534</v>
+        <v>-0.1328098926381431</v>
       </c>
       <c r="D39">
-        <v>-0.02486155431138624</v>
+        <v>0.04541746808029958</v>
       </c>
       <c r="E39">
-        <v>0.06843454298254331</v>
+        <v>0.0003414782963462795</v>
       </c>
       <c r="F39">
-        <v>-0.04744271924957365</v>
+        <v>0.01622848506349711</v>
       </c>
       <c r="G39">
-        <v>-0.04995576153955585</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05173254004224374</v>
+      </c>
+      <c r="H39">
+        <v>-0.04481962755194161</v>
+      </c>
+      <c r="I39">
+        <v>0.06857023275122816</v>
+      </c>
+      <c r="J39">
+        <v>-0.01531694038233974</v>
+      </c>
+      <c r="K39">
+        <v>0.05896076453990311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01450367030490771</v>
+        <v>-0.01612067925618476</v>
       </c>
       <c r="C40">
-        <v>-0.04107793435300399</v>
+        <v>-0.06750556868667759</v>
       </c>
       <c r="D40">
-        <v>-0.02329106802455406</v>
+        <v>0.02792904636510831</v>
       </c>
       <c r="E40">
-        <v>0.1339292820597329</v>
+        <v>0.02610011948345669</v>
       </c>
       <c r="F40">
-        <v>-0.01432811621437999</v>
+        <v>0.07521234464930129</v>
       </c>
       <c r="G40">
-        <v>-0.01338422977448307</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1200696768738855</v>
+      </c>
+      <c r="H40">
+        <v>-0.02105041904737825</v>
+      </c>
+      <c r="I40">
+        <v>-0.05371186654904996</v>
+      </c>
+      <c r="J40">
+        <v>0.2565139634229586</v>
+      </c>
+      <c r="K40">
+        <v>0.09746684843214376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.009246531722350156</v>
+        <v>-0.02129990540553603</v>
       </c>
       <c r="C41">
-        <v>-0.02162994837781605</v>
+        <v>-0.04925065975804908</v>
       </c>
       <c r="D41">
-        <v>0.0003645628814101257</v>
+        <v>0.01185745734116224</v>
       </c>
       <c r="E41">
-        <v>-0.02780585054884818</v>
+        <v>-0.005464529341276741</v>
       </c>
       <c r="F41">
-        <v>0.01116162795236534</v>
+        <v>-0.02074547406212201</v>
       </c>
       <c r="G41">
-        <v>0.0144495386440733</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.001558705742668406</v>
+      </c>
+      <c r="H41">
+        <v>-0.03199730588869268</v>
+      </c>
+      <c r="I41">
+        <v>-0.03213936033283043</v>
+      </c>
+      <c r="J41">
+        <v>0.05185200627829003</v>
+      </c>
+      <c r="K41">
+        <v>0.01211949608563718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.005692909451428395</v>
+        <v>-0.01691322941645436</v>
       </c>
       <c r="C43">
-        <v>-0.0213945598815989</v>
+        <v>-0.04542785934649744</v>
       </c>
       <c r="D43">
-        <v>-0.01086521416869273</v>
+        <v>0.02680856799996308</v>
       </c>
       <c r="E43">
-        <v>-0.003288989346481621</v>
+        <v>-0.0179464883961479</v>
       </c>
       <c r="F43">
-        <v>-0.021934189207235</v>
+        <v>-0.007471884972370561</v>
       </c>
       <c r="G43">
-        <v>0.003936227293257365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.005042802844374652</v>
+      </c>
+      <c r="H43">
+        <v>-0.04834438554937118</v>
+      </c>
+      <c r="I43">
+        <v>-0.004886318897787339</v>
+      </c>
+      <c r="J43">
+        <v>0.04310599021989456</v>
+      </c>
+      <c r="K43">
+        <v>0.008887614181296818</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02507152525087852</v>
+        <v>-0.01102651086996257</v>
       </c>
       <c r="C44">
-        <v>-0.08528416708724719</v>
+        <v>-0.09194817223287582</v>
       </c>
       <c r="D44">
-        <v>-0.001521996985244369</v>
+        <v>0.04695024168374349</v>
       </c>
       <c r="E44">
-        <v>0.1024616564943296</v>
+        <v>-0.02051184158552229</v>
       </c>
       <c r="F44">
-        <v>-0.02402770658747579</v>
+        <v>0.0812138232688298</v>
       </c>
       <c r="G44">
-        <v>0.02171451186101186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04349395154760791</v>
+      </c>
+      <c r="H44">
+        <v>-0.04717123418231167</v>
+      </c>
+      <c r="I44">
+        <v>0.06233426627066576</v>
+      </c>
+      <c r="J44">
+        <v>-0.06609119736985877</v>
+      </c>
+      <c r="K44">
+        <v>-0.01725181658152181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.005144669062234445</v>
+        <v>-0.003538958680008849</v>
       </c>
       <c r="C46">
-        <v>-0.06067842521404628</v>
+        <v>-0.0633003941437459</v>
       </c>
       <c r="D46">
-        <v>-0.02321021819994184</v>
+        <v>0.02224667244997139</v>
       </c>
       <c r="E46">
-        <v>0.04936668383274934</v>
+        <v>0.004571033168112383</v>
       </c>
       <c r="F46">
-        <v>-0.02379797961648671</v>
+        <v>0.001747877298518695</v>
       </c>
       <c r="G46">
-        <v>-0.03493850403143441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03660303560907072</v>
+      </c>
+      <c r="H46">
+        <v>-0.1121018992207374</v>
+      </c>
+      <c r="I46">
+        <v>0.01079553177001394</v>
+      </c>
+      <c r="J46">
+        <v>0.08440077334502527</v>
+      </c>
+      <c r="K46">
+        <v>-0.04333171324406901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.007255555868878804</v>
+        <v>-0.02151516872247707</v>
       </c>
       <c r="C47">
-        <v>-0.1120695511795545</v>
+        <v>-0.09655846741660155</v>
       </c>
       <c r="D47">
-        <v>-0.02997009571284959</v>
+        <v>0.03762296824898639</v>
       </c>
       <c r="E47">
-        <v>-0.0668371464491308</v>
+        <v>0.009351483697574589</v>
       </c>
       <c r="F47">
-        <v>0.03127182966240797</v>
+        <v>-0.03509703970435353</v>
       </c>
       <c r="G47">
-        <v>-0.0347414041916518</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.02526328433308509</v>
+      </c>
+      <c r="H47">
+        <v>-0.07472597303348422</v>
+      </c>
+      <c r="I47">
+        <v>-0.03018633306446031</v>
+      </c>
+      <c r="J47">
+        <v>0.0288286872650301</v>
+      </c>
+      <c r="K47">
+        <v>0.0465132136396408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01747920173541955</v>
+        <v>-0.02192043770733524</v>
       </c>
       <c r="C48">
-        <v>-0.05499399659607289</v>
+        <v>-0.05822884354122467</v>
       </c>
       <c r="D48">
-        <v>-0.053798520832117</v>
+        <v>0.05127704540926314</v>
       </c>
       <c r="E48">
-        <v>0.01324058489992039</v>
+        <v>-0.005674844173227585</v>
       </c>
       <c r="F48">
-        <v>-0.01153688506672039</v>
+        <v>0.004724232675532038</v>
       </c>
       <c r="G48">
-        <v>-0.01598625893308234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.00308809419546527</v>
+      </c>
+      <c r="H48">
+        <v>-0.1048510805623004</v>
+      </c>
+      <c r="I48">
+        <v>0.03793840512456973</v>
+      </c>
+      <c r="J48">
+        <v>-0.08557042790288505</v>
+      </c>
+      <c r="K48">
+        <v>0.08268045330628652</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.005112432228723176</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.01934368652929981</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.001985652467386899</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.009046901142176225</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03609052950621883</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03557560232871221</v>
+      </c>
+      <c r="H49">
+        <v>0.0175888755513038</v>
+      </c>
+      <c r="I49">
+        <v>0.04596696666727568</v>
+      </c>
+      <c r="J49">
+        <v>-0.02631118589998182</v>
+      </c>
+      <c r="K49">
+        <v>0.02425479433643202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.002159136921508552</v>
+        <v>-0.01376438425798369</v>
       </c>
       <c r="C50">
-        <v>-0.09195179087131446</v>
+        <v>-0.08894777198581678</v>
       </c>
       <c r="D50">
-        <v>-0.02183721452356269</v>
+        <v>0.02210243124311202</v>
       </c>
       <c r="E50">
-        <v>-0.02213546097276249</v>
+        <v>-0.002925287012889263</v>
       </c>
       <c r="F50">
-        <v>0.008127214017033082</v>
+        <v>-0.004215407672962162</v>
       </c>
       <c r="G50">
-        <v>0.01859378669491265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.03550714098261642</v>
+      </c>
+      <c r="H50">
+        <v>-0.06220397543524316</v>
+      </c>
+      <c r="I50">
+        <v>-0.04207936971509967</v>
+      </c>
+      <c r="J50">
+        <v>0.02294799143544942</v>
+      </c>
+      <c r="K50">
+        <v>0.02702690216891026</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.006372612954643594</v>
+        <v>0.00501015555404988</v>
       </c>
       <c r="C51">
-        <v>-0.07214106305344489</v>
+        <v>-0.04175285015882574</v>
       </c>
       <c r="D51">
-        <v>0.01506744152855712</v>
+        <v>0.01694258019808438</v>
       </c>
       <c r="E51">
-        <v>0.08897430043543007</v>
+        <v>0.009373527548819231</v>
       </c>
       <c r="F51">
-        <v>-0.005053714683009197</v>
+        <v>0.04641914043791578</v>
       </c>
       <c r="G51">
-        <v>0.03285827181337773</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02164598879549101</v>
+      </c>
+      <c r="H51">
+        <v>-0.09281628428806647</v>
+      </c>
+      <c r="I51">
+        <v>0.02381795971568209</v>
+      </c>
+      <c r="J51">
+        <v>-0.110731671746059</v>
+      </c>
+      <c r="K51">
+        <v>0.007666439034389301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.0509220699271592</v>
+        <v>-0.05715616003827881</v>
       </c>
       <c r="C53">
-        <v>-0.1392916539061417</v>
+        <v>-0.134573133712127</v>
       </c>
       <c r="D53">
-        <v>-0.05136590709033129</v>
+        <v>0.04680860360026226</v>
       </c>
       <c r="E53">
-        <v>-0.1175039241232273</v>
+        <v>0.00531868054769952</v>
       </c>
       <c r="F53">
-        <v>-0.02718913931533618</v>
+        <v>-0.08639749552155755</v>
       </c>
       <c r="G53">
-        <v>-0.01529329306221199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.06572681140585576</v>
+      </c>
+      <c r="H53">
+        <v>0.01232130646694225</v>
+      </c>
+      <c r="I53">
+        <v>-0.04121509452383185</v>
+      </c>
+      <c r="J53">
+        <v>0.009911128446918714</v>
+      </c>
+      <c r="K53">
+        <v>0.09094242594462755</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01489139522409974</v>
+        <v>-0.01737400811579449</v>
       </c>
       <c r="C54">
-        <v>-0.06130525867134617</v>
+        <v>-0.0729582874464873</v>
       </c>
       <c r="D54">
-        <v>0.0009344946349406668</v>
+        <v>0.003680013274936075</v>
       </c>
       <c r="E54">
-        <v>-0.006102685492419871</v>
+        <v>-0.001617387360390992</v>
       </c>
       <c r="F54">
-        <v>-0.02907073111661153</v>
+        <v>-0.01180139523333019</v>
       </c>
       <c r="G54">
-        <v>-0.008246011110312751</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.01875049896586597</v>
+      </c>
+      <c r="H54">
+        <v>-0.06510143038497233</v>
+      </c>
+      <c r="I54">
+        <v>0.02355155872996717</v>
+      </c>
+      <c r="J54">
+        <v>0.02124015366152116</v>
+      </c>
+      <c r="K54">
+        <v>-0.006803153181614861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.03637371668525646</v>
+        <v>-0.03351819698720598</v>
       </c>
       <c r="C55">
-        <v>-0.1013056247059927</v>
+        <v>-0.09242502461368859</v>
       </c>
       <c r="D55">
-        <v>-0.05790899092163581</v>
+        <v>0.04924788370189062</v>
       </c>
       <c r="E55">
-        <v>-0.06487811388423606</v>
+        <v>0.0005305489925153141</v>
       </c>
       <c r="F55">
-        <v>0.001811318896518222</v>
+        <v>-0.06819197645736409</v>
       </c>
       <c r="G55">
-        <v>-0.03198520715034481</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03373744348937838</v>
+      </c>
+      <c r="H55">
+        <v>0.007076839932051545</v>
+      </c>
+      <c r="I55">
+        <v>0.01318384633229843</v>
+      </c>
+      <c r="J55">
+        <v>0.00151133302644393</v>
+      </c>
+      <c r="K55">
+        <v>0.06365983002238962</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.03674218519463529</v>
+        <v>-0.04290875461062056</v>
       </c>
       <c r="C56">
-        <v>-0.1812291136649435</v>
+        <v>-0.1665871682058627</v>
       </c>
       <c r="D56">
-        <v>-0.05409562921775957</v>
+        <v>0.06826582053856951</v>
       </c>
       <c r="E56">
-        <v>-0.1492938136575092</v>
+        <v>0.0249805184523833</v>
       </c>
       <c r="F56">
-        <v>0.01797809778919788</v>
+        <v>-0.1213691395678988</v>
       </c>
       <c r="G56">
-        <v>-0.004306839075856799</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1264296169009675</v>
+      </c>
+      <c r="H56">
+        <v>0.03516845902180916</v>
+      </c>
+      <c r="I56">
+        <v>-0.0263456440566359</v>
+      </c>
+      <c r="J56">
+        <v>-0.02299122962193903</v>
+      </c>
+      <c r="K56">
+        <v>0.0528872851900227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.04537580050433843</v>
+        <v>-0.02141718697683524</v>
       </c>
       <c r="C58">
-        <v>-0.2477647627613531</v>
+        <v>-0.1828252033530541</v>
       </c>
       <c r="D58">
-        <v>0.1127126225289391</v>
+        <v>0.01864937118090785</v>
       </c>
       <c r="E58">
-        <v>0.2288397624835466</v>
+        <v>-0.03059480342558113</v>
       </c>
       <c r="F58">
-        <v>-0.004456390644407007</v>
+        <v>0.3370187730901924</v>
       </c>
       <c r="G58">
-        <v>0.3825079094615756</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1300409697412496</v>
+      </c>
+      <c r="H58">
+        <v>-0.002729107375571077</v>
+      </c>
+      <c r="I58">
+        <v>0.0002600203757200781</v>
+      </c>
+      <c r="J58">
+        <v>-0.4024157157380456</v>
+      </c>
+      <c r="K58">
+        <v>-0.2377391081358694</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2841891844497955</v>
+        <v>-0.2863579258080874</v>
       </c>
       <c r="C59">
-        <v>0.03009916779086217</v>
+        <v>0.04853195087929848</v>
       </c>
       <c r="D59">
-        <v>0.03922949799309576</v>
+        <v>-0.002580532928196311</v>
       </c>
       <c r="E59">
-        <v>0.0303616094041491</v>
+        <v>0.02086411555720554</v>
       </c>
       <c r="F59">
-        <v>0.04620357215745684</v>
+        <v>0.0361246385170983</v>
       </c>
       <c r="G59">
-        <v>-0.0405075458010721</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002928488101574799</v>
+      </c>
+      <c r="H59">
+        <v>0.02046378515338606</v>
+      </c>
+      <c r="I59">
+        <v>-0.03431376753312371</v>
+      </c>
+      <c r="J59">
+        <v>0.01929792219605539</v>
+      </c>
+      <c r="K59">
+        <v>0.0175439819012797</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1236168663698703</v>
+        <v>-0.1502906016461137</v>
       </c>
       <c r="C60">
-        <v>-0.1311391841486284</v>
+        <v>-0.144309201211546</v>
       </c>
       <c r="D60">
-        <v>-0.04555631795726691</v>
+        <v>0.03514791274557835</v>
       </c>
       <c r="E60">
-        <v>0.08006574805488571</v>
+        <v>0.04471891274401062</v>
       </c>
       <c r="F60">
-        <v>-0.1075946829262654</v>
+        <v>-0.08342013420329485</v>
       </c>
       <c r="G60">
-        <v>-0.2905549969464623</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2788097977791364</v>
+      </c>
+      <c r="H60">
+        <v>0.2240514001977825</v>
+      </c>
+      <c r="I60">
+        <v>0.02759572881969743</v>
+      </c>
+      <c r="J60">
+        <v>-0.005791631942889904</v>
+      </c>
+      <c r="K60">
+        <v>-0.1073623667791273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.00755044408253274</v>
+        <v>-0.01907311164174546</v>
       </c>
       <c r="C61">
-        <v>-0.0959929852533264</v>
+        <v>-0.102582013997695</v>
       </c>
       <c r="D61">
-        <v>-0.04231708796581611</v>
+        <v>0.04553006720619315</v>
       </c>
       <c r="E61">
-        <v>0.02516322281559695</v>
+        <v>0.00173309975017859</v>
       </c>
       <c r="F61">
-        <v>-0.0419091544372307</v>
+        <v>-0.01995529439954858</v>
       </c>
       <c r="G61">
-        <v>-0.07738798276528668</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.04589075772499435</v>
+      </c>
+      <c r="H61">
+        <v>-0.05515684459547634</v>
+      </c>
+      <c r="I61">
+        <v>0.03343058334519605</v>
+      </c>
+      <c r="J61">
+        <v>0.02007225052742641</v>
+      </c>
+      <c r="K61">
+        <v>0.0475529267303366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.00224267012721014</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.006762893868906767</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.001441254228863502</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.001237014051631919</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.01378700546882788</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02577067930898325</v>
+      </c>
+      <c r="H62">
+        <v>-0.007831502528946486</v>
+      </c>
+      <c r="I62">
+        <v>0.008369182087301263</v>
+      </c>
+      <c r="J62">
+        <v>0.008421229410134847</v>
+      </c>
+      <c r="K62">
+        <v>-0.001075070871340712</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.003924954336921405</v>
+        <v>-0.02483353635994625</v>
       </c>
       <c r="C63">
-        <v>-0.06944900421359354</v>
+        <v>-0.07381481797165398</v>
       </c>
       <c r="D63">
-        <v>-0.01890873857689389</v>
+        <v>0.04873157809648044</v>
       </c>
       <c r="E63">
-        <v>0.00380532953039157</v>
+        <v>0.001472006194004219</v>
       </c>
       <c r="F63">
-        <v>-0.02865257306984595</v>
+        <v>-0.008203038417493771</v>
       </c>
       <c r="G63">
-        <v>-0.02639598739230585</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01658934531333392</v>
+      </c>
+      <c r="H63">
+        <v>-0.05875631050198582</v>
+      </c>
+      <c r="I63">
+        <v>0.0106090016039209</v>
+      </c>
+      <c r="J63">
+        <v>0.01216571078371562</v>
+      </c>
+      <c r="K63">
+        <v>0.06263172082152507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.007880260378921519</v>
+        <v>-0.01550776624385913</v>
       </c>
       <c r="C64">
-        <v>-0.09898455803298424</v>
+        <v>-0.0962988818518398</v>
       </c>
       <c r="D64">
-        <v>-0.06385333249905867</v>
+        <v>0.02728902389317383</v>
       </c>
       <c r="E64">
-        <v>0.02900852179821149</v>
+        <v>-0.0367636205717994</v>
       </c>
       <c r="F64">
-        <v>-0.02031203644562322</v>
+        <v>0.03952900309724882</v>
       </c>
       <c r="G64">
-        <v>-0.01388764938853796</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.03861444726508888</v>
+      </c>
+      <c r="H64">
+        <v>-0.0356715603207529</v>
+      </c>
+      <c r="I64">
+        <v>0.01807259902738531</v>
+      </c>
+      <c r="J64">
+        <v>0.02129264616800479</v>
+      </c>
+      <c r="K64">
+        <v>0.1247697664203683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.03079163470340708</v>
+        <v>-0.03224765792016905</v>
       </c>
       <c r="C65">
-        <v>-0.06258032288595267</v>
+        <v>-0.0861603489428588</v>
       </c>
       <c r="D65">
-        <v>-0.01276902538075764</v>
+        <v>0.006269488551743156</v>
       </c>
       <c r="E65">
-        <v>0.08343657940547515</v>
+        <v>-0.02913292761730257</v>
       </c>
       <c r="F65">
-        <v>-0.03287674552216054</v>
+        <v>0.03525236437087453</v>
       </c>
       <c r="G65">
-        <v>-0.03112048109880842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.1166275772089483</v>
+      </c>
+      <c r="H65">
+        <v>0.01129120031631702</v>
+      </c>
+      <c r="I65">
+        <v>0.08343916353260479</v>
+      </c>
+      <c r="J65">
+        <v>-0.07453323302311518</v>
+      </c>
+      <c r="K65">
+        <v>-0.03577518961337887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.009625399520436966</v>
+        <v>-0.01188477309723605</v>
       </c>
       <c r="C66">
-        <v>-0.1641799880487803</v>
+        <v>-0.1654406474337003</v>
       </c>
       <c r="D66">
-        <v>-0.001812380661463507</v>
+        <v>0.03261515761998848</v>
       </c>
       <c r="E66">
-        <v>0.1144305378493586</v>
+        <v>0.005748281405779455</v>
       </c>
       <c r="F66">
-        <v>-0.03220114258764008</v>
+        <v>0.03033557942927032</v>
       </c>
       <c r="G66">
-        <v>-0.05920220489506717</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04856373364865472</v>
+      </c>
+      <c r="H66">
+        <v>-0.04909297242737376</v>
+      </c>
+      <c r="I66">
+        <v>0.04928487281602268</v>
+      </c>
+      <c r="J66">
+        <v>-0.01120303871940649</v>
+      </c>
+      <c r="K66">
+        <v>0.03675147405424301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02403531810009325</v>
+        <v>-0.02135378726925362</v>
       </c>
       <c r="C67">
-        <v>-0.03734950045838879</v>
+        <v>-0.05518132267034142</v>
       </c>
       <c r="D67">
-        <v>-0.04840120081137184</v>
+        <v>0.03645887141617669</v>
       </c>
       <c r="E67">
-        <v>-0.005914760995422882</v>
+        <v>-0.02929689406514719</v>
       </c>
       <c r="F67">
-        <v>-0.02684343569935523</v>
+        <v>-0.01342456835337927</v>
       </c>
       <c r="G67">
-        <v>-0.01679388515501987</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02610557354466524</v>
+      </c>
+      <c r="H67">
+        <v>-0.05857357822740162</v>
+      </c>
+      <c r="I67">
+        <v>-0.04727418051328515</v>
+      </c>
+      <c r="J67">
+        <v>0.03819087252325928</v>
+      </c>
+      <c r="K67">
+        <v>0.05900837369743826</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2789576682157971</v>
+        <v>-0.2933718761132436</v>
       </c>
       <c r="C68">
-        <v>0.0541574313164984</v>
+        <v>0.05507808504431692</v>
       </c>
       <c r="D68">
-        <v>0.02053528220903744</v>
+        <v>-0.02856171808866025</v>
       </c>
       <c r="E68">
-        <v>-0.006084967144083102</v>
+        <v>0.006157523566056819</v>
       </c>
       <c r="F68">
-        <v>0.01284038652045839</v>
+        <v>0.03848857337463731</v>
       </c>
       <c r="G68">
-        <v>0.03114116763565564</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02368208625481171</v>
+      </c>
+      <c r="H68">
+        <v>0.01328715253142107</v>
+      </c>
+      <c r="I68">
+        <v>-0.05090282851469059</v>
+      </c>
+      <c r="J68">
+        <v>-0.01540877840184346</v>
+      </c>
+      <c r="K68">
+        <v>0.02103647231269531</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.008438689975664689</v>
+        <v>-0.008166880317160008</v>
       </c>
       <c r="C69">
-        <v>-0.1009384647002697</v>
+        <v>-0.07504534664717681</v>
       </c>
       <c r="D69">
-        <v>-0.05493870457869819</v>
+        <v>0.02670689412520811</v>
       </c>
       <c r="E69">
-        <v>-0.04943062861318344</v>
+        <v>0.0008774531801890955</v>
       </c>
       <c r="F69">
-        <v>-0.003537656269252602</v>
+        <v>-0.02109954716264709</v>
       </c>
       <c r="G69">
-        <v>0.000367929575531213</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.007061803622436687</v>
+      </c>
+      <c r="H69">
+        <v>-0.05772047096131132</v>
+      </c>
+      <c r="I69">
+        <v>-0.0248403223063151</v>
+      </c>
+      <c r="J69">
+        <v>-0.005774621236940331</v>
+      </c>
+      <c r="K69">
+        <v>0.05221694616842223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2825851037422034</v>
+        <v>-0.2763212257757188</v>
       </c>
       <c r="C71">
-        <v>0.06761182798844657</v>
+        <v>0.07709087988140939</v>
       </c>
       <c r="D71">
-        <v>0.02263257141002593</v>
+        <v>-0.01587732897311483</v>
       </c>
       <c r="E71">
-        <v>0.006486828830559197</v>
+        <v>-0.02539861383070063</v>
       </c>
       <c r="F71">
-        <v>-0.01250368944055608</v>
+        <v>0.04676153494259838</v>
       </c>
       <c r="G71">
-        <v>0.02822902859884347</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0221110593144192</v>
+      </c>
+      <c r="H71">
+        <v>-0.05168681176031782</v>
+      </c>
+      <c r="I71">
+        <v>-0.1207972335143052</v>
+      </c>
+      <c r="J71">
+        <v>-0.05187913506866374</v>
+      </c>
+      <c r="K71">
+        <v>0.03920968295183916</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.04108143915719544</v>
+        <v>-0.05482032856766075</v>
       </c>
       <c r="C72">
-        <v>-0.1539685463754305</v>
+        <v>-0.1485576301737537</v>
       </c>
       <c r="D72">
-        <v>-0.04149617008773849</v>
+        <v>0.02505922018869002</v>
       </c>
       <c r="E72">
-        <v>0.1009302580605738</v>
+        <v>-0.00635637656401341</v>
       </c>
       <c r="F72">
-        <v>-0.09171001588296866</v>
+        <v>-0.004649506051669308</v>
       </c>
       <c r="G72">
-        <v>-0.06347519300918435</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.06095199637201332</v>
+      </c>
+      <c r="H72">
+        <v>0.02918037114134569</v>
+      </c>
+      <c r="I72">
+        <v>0.1062505215662339</v>
+      </c>
+      <c r="J72">
+        <v>-0.06837063543070478</v>
+      </c>
+      <c r="K72">
+        <v>0.01247939866774751</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.08133343758230718</v>
+        <v>-0.150111390583843</v>
       </c>
       <c r="C73">
-        <v>-0.1475406661931613</v>
+        <v>-0.1948848842393734</v>
       </c>
       <c r="D73">
-        <v>-0.09326319510095778</v>
+        <v>0.06640525847070074</v>
       </c>
       <c r="E73">
-        <v>0.06851849866121303</v>
+        <v>0.0333459314228805</v>
       </c>
       <c r="F73">
-        <v>-0.160307465802152</v>
+        <v>-0.1889374040117537</v>
       </c>
       <c r="G73">
-        <v>-0.4029902285185245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.4167261985380747</v>
+      </c>
+      <c r="H73">
+        <v>0.290749961704861</v>
+      </c>
+      <c r="I73">
+        <v>-0.07620389320023761</v>
+      </c>
+      <c r="J73">
+        <v>-0.0896606545556741</v>
+      </c>
+      <c r="K73">
+        <v>-0.07268861073973727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01709886736906958</v>
+        <v>-0.03726841847802972</v>
       </c>
       <c r="C74">
-        <v>-0.1106698497318116</v>
+        <v>-0.1080695136997659</v>
       </c>
       <c r="D74">
-        <v>-0.06313881150568065</v>
+        <v>0.04080311119540724</v>
       </c>
       <c r="E74">
-        <v>-0.09169530761866113</v>
+        <v>-0.0003165858258348</v>
       </c>
       <c r="F74">
-        <v>0.01215925941610015</v>
+        <v>-0.06673969592287489</v>
       </c>
       <c r="G74">
-        <v>-0.01490486217580872</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05141892221911175</v>
+      </c>
+      <c r="H74">
+        <v>-0.005811326579682844</v>
+      </c>
+      <c r="I74">
+        <v>0.007435633697690483</v>
+      </c>
+      <c r="J74">
+        <v>-0.02393946424761288</v>
+      </c>
+      <c r="K74">
+        <v>0.07762954399190854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.06331266136694949</v>
+        <v>-0.06190062909586225</v>
       </c>
       <c r="C75">
-        <v>-0.1806460191516996</v>
+        <v>-0.1843339568906421</v>
       </c>
       <c r="D75">
-        <v>-0.09293325660579313</v>
+        <v>0.0751378755830098</v>
       </c>
       <c r="E75">
-        <v>-0.2369000116283695</v>
+        <v>-0.05120963376915996</v>
       </c>
       <c r="F75">
-        <v>0.02424168177470461</v>
+        <v>-0.1632007587959654</v>
       </c>
       <c r="G75">
-        <v>0.05874243327515427</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1978398818564746</v>
+      </c>
+      <c r="H75">
+        <v>0.03307433474246896</v>
+      </c>
+      <c r="I75">
+        <v>-0.1284493989088446</v>
+      </c>
+      <c r="J75">
+        <v>0.05414340035112535</v>
+      </c>
+      <c r="K75">
+        <v>0.09138000710209875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.03590949356843977</v>
+        <v>-0.04134917830025172</v>
       </c>
       <c r="C76">
-        <v>-0.1182153557548026</v>
+        <v>-0.129090941841313</v>
       </c>
       <c r="D76">
-        <v>-0.05673088396953811</v>
+        <v>0.06378110897347096</v>
       </c>
       <c r="E76">
-        <v>-0.09761291133682347</v>
+        <v>-0.005361429638872775</v>
       </c>
       <c r="F76">
-        <v>0.002411223226539266</v>
+        <v>-0.09537338454639649</v>
       </c>
       <c r="G76">
-        <v>-0.04503980551012737</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05562283428095383</v>
+      </c>
+      <c r="H76">
+        <v>0.01008572206855971</v>
+      </c>
+      <c r="I76">
+        <v>-0.0008942177670361928</v>
+      </c>
+      <c r="J76">
+        <v>0.03187062875987494</v>
+      </c>
+      <c r="K76">
+        <v>0.1350610177296224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08144549060685685</v>
+        <v>-0.04536548630223434</v>
       </c>
       <c r="C77">
-        <v>-0.2305085723376491</v>
+        <v>-0.3213870402782097</v>
       </c>
       <c r="D77">
-        <v>0.8760766781197741</v>
+        <v>-0.9324293208460507</v>
       </c>
       <c r="E77">
-        <v>-0.2688810952730376</v>
+        <v>-0.04362224165946689</v>
       </c>
       <c r="F77">
-        <v>-0.1719670109658459</v>
+        <v>-0.07579140188957961</v>
       </c>
       <c r="G77">
-        <v>-0.09705427151665891</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01448719065918835</v>
+      </c>
+      <c r="H77">
+        <v>-0.04807042007150113</v>
+      </c>
+      <c r="I77">
+        <v>-0.003570021327134183</v>
+      </c>
+      <c r="J77">
+        <v>0.003670339730071973</v>
+      </c>
+      <c r="K77">
+        <v>0.005087905933918364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.04079094787955153</v>
+        <v>-0.03452235107457562</v>
       </c>
       <c r="C78">
-        <v>-0.1437162781793595</v>
+        <v>-0.11712914076581</v>
       </c>
       <c r="D78">
-        <v>-0.05776893700693776</v>
+        <v>0.08410473091261066</v>
       </c>
       <c r="E78">
-        <v>0.05263369663560047</v>
+        <v>0.04184202761998121</v>
       </c>
       <c r="F78">
-        <v>0.1581375011892612</v>
+        <v>0.0009957381221570305</v>
       </c>
       <c r="G78">
-        <v>0.03619309851094617</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.0953645552922079</v>
+      </c>
+      <c r="H78">
+        <v>-0.06073762273949678</v>
+      </c>
+      <c r="I78">
+        <v>0.1267830794958583</v>
+      </c>
+      <c r="J78">
+        <v>-0.416750872232756</v>
+      </c>
+      <c r="K78">
+        <v>-0.07034838912980526</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.04094123960248899</v>
+        <v>-0.05622430044342319</v>
       </c>
       <c r="C79">
-        <v>-0.2157569023313173</v>
+        <v>-0.1647575783757695</v>
       </c>
       <c r="D79">
-        <v>-0.105882097272096</v>
+        <v>0.05863365245136352</v>
       </c>
       <c r="E79">
-        <v>-0.2136553718431612</v>
+        <v>0.01656205623733564</v>
       </c>
       <c r="F79">
-        <v>0.1212839330339026</v>
+        <v>-0.1123411362568361</v>
       </c>
       <c r="G79">
-        <v>0.0505291707395655</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2279963976552234</v>
+      </c>
+      <c r="H79">
+        <v>-0.002337780369328675</v>
+      </c>
+      <c r="I79">
+        <v>-0.07745893173440477</v>
+      </c>
+      <c r="J79">
+        <v>-0.05383246725868363</v>
+      </c>
+      <c r="K79">
+        <v>0.06823338137535238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.0141417288805085</v>
+        <v>-0.01907422885582777</v>
       </c>
       <c r="C80">
-        <v>-0.05569249190687842</v>
+        <v>-0.05501851537398166</v>
       </c>
       <c r="D80">
-        <v>-0.04826358400073208</v>
+        <v>0.03985224626141348</v>
       </c>
       <c r="E80">
-        <v>-0.01455971382426859</v>
+        <v>0.04603571817768386</v>
       </c>
       <c r="F80">
-        <v>0.01492602389046658</v>
+        <v>0.02262353993110199</v>
       </c>
       <c r="G80">
-        <v>-0.02139135521998239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04398655558118028</v>
+      </c>
+      <c r="H80">
+        <v>0.03104974574571398</v>
+      </c>
+      <c r="I80">
+        <v>-0.06043704852301712</v>
+      </c>
+      <c r="J80">
+        <v>0.08055880664050265</v>
+      </c>
+      <c r="K80">
+        <v>0.06173445537094379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.0146047417009648</v>
+        <v>-0.01619882898804129</v>
       </c>
       <c r="C81">
-        <v>-0.1142437000932768</v>
+        <v>-0.112426495672781</v>
       </c>
       <c r="D81">
-        <v>-0.07666158552501326</v>
+        <v>0.04659832013944563</v>
       </c>
       <c r="E81">
-        <v>-0.1604731028925229</v>
+        <v>0.006102494851644733</v>
       </c>
       <c r="F81">
-        <v>0.02749458137141712</v>
+        <v>-0.07316661620886707</v>
       </c>
       <c r="G81">
-        <v>-0.01278280197671843</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1167483513314309</v>
+      </c>
+      <c r="H81">
+        <v>-0.0523864535728785</v>
+      </c>
+      <c r="I81">
+        <v>-0.05550124717599501</v>
+      </c>
+      <c r="J81">
+        <v>0.01857495538427057</v>
+      </c>
+      <c r="K81">
+        <v>0.1099949666162606</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.0398402335708334</v>
+        <v>-0.04653435300215219</v>
       </c>
       <c r="C82">
-        <v>-0.1216109193719945</v>
+        <v>-0.1177155382103735</v>
       </c>
       <c r="D82">
-        <v>-0.08045634725395776</v>
+        <v>0.06256334804369</v>
       </c>
       <c r="E82">
-        <v>-0.1136641404107454</v>
+        <v>0.005301724066346621</v>
       </c>
       <c r="F82">
-        <v>-0.01082530144220854</v>
+        <v>-0.09220658167525919</v>
       </c>
       <c r="G82">
-        <v>-0.04528537977651593</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.07661572577032061</v>
+      </c>
+      <c r="H82">
+        <v>-0.01563619329746803</v>
+      </c>
+      <c r="I82">
+        <v>-0.02069776004034198</v>
+      </c>
+      <c r="J82">
+        <v>0.002024832797446794</v>
+      </c>
+      <c r="K82">
+        <v>0.1181444521195302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.004345347126138958</v>
+        <v>0.001079394475217193</v>
       </c>
       <c r="C83">
-        <v>-0.04395049537943162</v>
+        <v>-0.005470116173255189</v>
       </c>
       <c r="D83">
-        <v>0.1808656673667132</v>
+        <v>-0.05786460161276343</v>
       </c>
       <c r="E83">
-        <v>0.10530497333075</v>
+        <v>0.9574863098703961</v>
       </c>
       <c r="F83">
-        <v>0.8529955641152009</v>
+        <v>0.08407469987869309</v>
       </c>
       <c r="G83">
-        <v>-0.3320825006152834</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.07085072223791128</v>
+      </c>
+      <c r="H83">
+        <v>0.07838436465921307</v>
+      </c>
+      <c r="I83">
+        <v>0.05408226731756102</v>
+      </c>
+      <c r="J83">
+        <v>0.008010073694178676</v>
+      </c>
+      <c r="K83">
+        <v>0.09891446686220487</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.002302096920012444</v>
+        <v>0.001620909933749198</v>
       </c>
       <c r="C84">
-        <v>-0.04512778449349899</v>
+        <v>-0.0424744449455005</v>
       </c>
       <c r="D84">
-        <v>-0.01611824406863488</v>
+        <v>0.05721704925818932</v>
       </c>
       <c r="E84">
-        <v>0.08126854846965187</v>
+        <v>-0.02993616237936697</v>
       </c>
       <c r="F84">
-        <v>-0.0275357467969294</v>
+        <v>0.09116194346900999</v>
       </c>
       <c r="G84">
-        <v>0.1442426555251839</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03833706690965608</v>
+      </c>
+      <c r="H84">
+        <v>-0.07640267062290017</v>
+      </c>
+      <c r="I84">
+        <v>0.1171879659914607</v>
+      </c>
+      <c r="J84">
+        <v>0.05986039653587405</v>
+      </c>
+      <c r="K84">
+        <v>0.0835342327331843</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.03680601119081222</v>
+        <v>-0.03080674644256224</v>
       </c>
       <c r="C85">
-        <v>-0.1515840906924862</v>
+        <v>-0.1296623118792645</v>
       </c>
       <c r="D85">
-        <v>-0.0853386425811178</v>
+        <v>0.07044675556664289</v>
       </c>
       <c r="E85">
-        <v>-0.2131106203218617</v>
+        <v>0.002624872105447133</v>
       </c>
       <c r="F85">
-        <v>0.06494364642306298</v>
+        <v>-0.1666289981818163</v>
       </c>
       <c r="G85">
-        <v>0.02268522788575642</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1680146028948003</v>
+      </c>
+      <c r="H85">
+        <v>0.02237821731122837</v>
+      </c>
+      <c r="I85">
+        <v>-0.08209254063653329</v>
+      </c>
+      <c r="J85">
+        <v>0.02526819195810649</v>
+      </c>
+      <c r="K85">
+        <v>0.1770045100164311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.02034396362056125</v>
+        <v>-0.01721074780458745</v>
       </c>
       <c r="C86">
-        <v>-0.06204403890750058</v>
+        <v>-0.07406116244795087</v>
       </c>
       <c r="D86">
-        <v>0.04264593463453732</v>
+        <v>0.02278734774010535</v>
       </c>
       <c r="E86">
-        <v>0.04952220442764176</v>
+        <v>-0.001450178352262049</v>
       </c>
       <c r="F86">
-        <v>-0.04445753895401787</v>
+        <v>0.07657156261602779</v>
       </c>
       <c r="G86">
-        <v>0.02179799801553184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08268723831397425</v>
+      </c>
+      <c r="H86">
+        <v>-0.05703666524028605</v>
+      </c>
+      <c r="I86">
+        <v>-0.1203764748205973</v>
+      </c>
+      <c r="J86">
+        <v>-0.1526612974338614</v>
+      </c>
+      <c r="K86">
+        <v>-0.02570749184500976</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.05921694287676377</v>
+        <v>-0.02374049228163524</v>
       </c>
       <c r="C87">
-        <v>-0.1335019411212014</v>
+        <v>-0.1202122638993884</v>
       </c>
       <c r="D87">
-        <v>-0.005842570951103018</v>
+        <v>0.007733427449693273</v>
       </c>
       <c r="E87">
-        <v>0.1092217511815163</v>
+        <v>-0.009876770594146749</v>
       </c>
       <c r="F87">
-        <v>0.01028390138365697</v>
+        <v>0.09141645800138931</v>
       </c>
       <c r="G87">
-        <v>0.007215948183256722</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.007437551789510118</v>
+      </c>
+      <c r="H87">
+        <v>-0.01453370212729661</v>
+      </c>
+      <c r="I87">
+        <v>0.09863127569435369</v>
+      </c>
+      <c r="J87">
+        <v>-0.06971239422814333</v>
+      </c>
+      <c r="K87">
+        <v>0.05970334022371932</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.0120521698132291</v>
+        <v>-0.03765758718155492</v>
       </c>
       <c r="C88">
-        <v>-0.06036546782274786</v>
+        <v>-0.07580867305577312</v>
       </c>
       <c r="D88">
-        <v>-0.05706636282755903</v>
+        <v>0.04077425612827953</v>
       </c>
       <c r="E88">
-        <v>-0.04894557195863993</v>
+        <v>-0.01553034942708295</v>
       </c>
       <c r="F88">
-        <v>-0.0351076828307165</v>
+        <v>-0.01683758522686497</v>
       </c>
       <c r="G88">
-        <v>-0.02395195532996368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.01613974937357881</v>
+      </c>
+      <c r="H88">
+        <v>0.006261017188897973</v>
+      </c>
+      <c r="I88">
+        <v>-0.03579815502221884</v>
+      </c>
+      <c r="J88">
+        <v>0.07742016234951608</v>
+      </c>
+      <c r="K88">
+        <v>0.1056527616092603</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3901434207233413</v>
+        <v>-0.3931266390358351</v>
       </c>
       <c r="C89">
-        <v>0.1045133282996896</v>
+        <v>0.1107720524939572</v>
       </c>
       <c r="D89">
-        <v>-0.1087782105412023</v>
+        <v>-0.02450297337993319</v>
       </c>
       <c r="E89">
-        <v>0.0425029553708552</v>
+        <v>-0.0274892034229588</v>
       </c>
       <c r="F89">
-        <v>0.05834243481534098</v>
+        <v>0.05991386186619296</v>
       </c>
       <c r="G89">
-        <v>0.07604366020926744</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.005818652962962328</v>
+      </c>
+      <c r="H89">
+        <v>0.01496160263025417</v>
+      </c>
+      <c r="I89">
+        <v>0.7386910937409272</v>
+      </c>
+      <c r="J89">
+        <v>0.0737009178028198</v>
+      </c>
+      <c r="K89">
+        <v>0.06735871472424591</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3032654020670776</v>
+        <v>-0.3140443655286512</v>
       </c>
       <c r="C90">
-        <v>0.03245595948471798</v>
+        <v>0.064464430035247</v>
       </c>
       <c r="D90">
-        <v>-0.003925794588097863</v>
+        <v>-0.006474695025451596</v>
       </c>
       <c r="E90">
-        <v>0.02823617150384508</v>
+        <v>0.02051785150789238</v>
       </c>
       <c r="F90">
-        <v>0.04807362417268022</v>
+        <v>0.02681384644466443</v>
       </c>
       <c r="G90">
-        <v>-0.03055828180660105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02131188656296051</v>
+      </c>
+      <c r="H90">
+        <v>-0.01373046053741207</v>
+      </c>
+      <c r="I90">
+        <v>-0.08125443281218384</v>
+      </c>
+      <c r="J90">
+        <v>-0.02490862878220482</v>
+      </c>
+      <c r="K90">
+        <v>-0.007072517661093131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.03598849619755604</v>
+        <v>-0.05298286395622741</v>
       </c>
       <c r="C91">
-        <v>-0.1172347900155011</v>
+        <v>-0.1056093807515891</v>
       </c>
       <c r="D91">
-        <v>-0.04541310816285579</v>
+        <v>0.03714703602814629</v>
       </c>
       <c r="E91">
-        <v>-0.1289174703217509</v>
+        <v>0.0350691151582698</v>
       </c>
       <c r="F91">
-        <v>0.03874011684504081</v>
+        <v>-0.07562368511033976</v>
       </c>
       <c r="G91">
-        <v>0.002436879480415832</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.09202287037551481</v>
+      </c>
+      <c r="H91">
+        <v>0.01887565164092993</v>
+      </c>
+      <c r="I91">
+        <v>-0.0150454098632128</v>
+      </c>
+      <c r="J91">
+        <v>0.042421633989051</v>
+      </c>
+      <c r="K91">
+        <v>0.05316819023125723</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3754187751892383</v>
+        <v>-0.3536892230031445</v>
       </c>
       <c r="C92">
-        <v>0.1271664949191006</v>
+        <v>0.130768392178984</v>
       </c>
       <c r="D92">
-        <v>0.009798905434535259</v>
+        <v>-0.04333278575732168</v>
       </c>
       <c r="E92">
-        <v>0.007970060015217901</v>
+        <v>-0.04593801934929814</v>
       </c>
       <c r="F92">
-        <v>-0.09264021925698862</v>
+        <v>0.05686849238564291</v>
       </c>
       <c r="G92">
-        <v>0.04179695565367245</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0224295794664686</v>
+      </c>
+      <c r="H92">
+        <v>-0.08514165408592421</v>
+      </c>
+      <c r="I92">
+        <v>-0.1575342519858863</v>
+      </c>
+      <c r="J92">
+        <v>-0.005511037799043224</v>
+      </c>
+      <c r="K92">
+        <v>-0.05130619379327545</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3021779981090909</v>
+        <v>-0.3095049445061216</v>
       </c>
       <c r="C93">
-        <v>0.09169499753362118</v>
+        <v>0.1123477395039677</v>
       </c>
       <c r="D93">
-        <v>-0.02935734870792091</v>
+        <v>0.002966308627092836</v>
       </c>
       <c r="E93">
-        <v>0.02454894296560331</v>
+        <v>0.002106377380193765</v>
       </c>
       <c r="F93">
-        <v>0.029463753108201</v>
+        <v>0.03220496469971701</v>
       </c>
       <c r="G93">
-        <v>0.03920825513632357</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05361475055121491</v>
+      </c>
+      <c r="H93">
+        <v>-0.03467560517653247</v>
+      </c>
+      <c r="I93">
+        <v>-0.1082985199066315</v>
+      </c>
+      <c r="J93">
+        <v>-0.02086261762925206</v>
+      </c>
+      <c r="K93">
+        <v>0.03418593994228589</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.07423195034316975</v>
+        <v>-0.07913351832621383</v>
       </c>
       <c r="C94">
-        <v>-0.2293672073635749</v>
+        <v>-0.1887389477601105</v>
       </c>
       <c r="D94">
-        <v>-0.1524786188965238</v>
+        <v>0.09242174036176827</v>
       </c>
       <c r="E94">
-        <v>-0.4160520843888508</v>
+        <v>0.005727561623404487</v>
       </c>
       <c r="F94">
-        <v>0.16076785082602</v>
+        <v>-0.2468951499248927</v>
       </c>
       <c r="G94">
-        <v>0.3135127484544272</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.4800058507379346</v>
+      </c>
+      <c r="H94">
+        <v>0.1971323667027432</v>
+      </c>
+      <c r="I94">
+        <v>0.1373935471548848</v>
+      </c>
+      <c r="J94">
+        <v>0.2711386686953141</v>
+      </c>
+      <c r="K94">
+        <v>-0.54404243268851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.04008986712909571</v>
+        <v>-0.03756056818651193</v>
       </c>
       <c r="C95">
-        <v>-0.07335076366398215</v>
+        <v>-0.12306632682962</v>
       </c>
       <c r="D95">
-        <v>-0.004362613263412221</v>
+        <v>0.03913846988095243</v>
       </c>
       <c r="E95">
-        <v>0.01116338404458458</v>
+        <v>-0.04428905574432584</v>
       </c>
       <c r="F95">
-        <v>-0.08243011231503232</v>
+        <v>-0.04297203642334358</v>
       </c>
       <c r="G95">
-        <v>-0.1511337309545718</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1086447727393072</v>
+      </c>
+      <c r="H95">
+        <v>-0.05586569717997585</v>
+      </c>
+      <c r="I95">
+        <v>0.1323561591817116</v>
+      </c>
+      <c r="J95">
+        <v>0.2236053298079692</v>
+      </c>
+      <c r="K95">
+        <v>0.2472956683013223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.01083695179756208</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0173583687302125</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0162868863053438</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.03586601776540872</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.02342759581539154</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03641929113924719</v>
+      </c>
+      <c r="H97">
+        <v>-0.00313243245733845</v>
+      </c>
+      <c r="I97">
+        <v>0.01709944380244429</v>
+      </c>
+      <c r="J97">
+        <v>0.005158804038794792</v>
+      </c>
+      <c r="K97">
+        <v>-0.03875109430719631</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08116706346134965</v>
+        <v>-0.1317615151811637</v>
       </c>
       <c r="C98">
-        <v>-0.145492098890174</v>
+        <v>-0.1592342083319022</v>
       </c>
       <c r="D98">
-        <v>-0.07650761363048413</v>
+        <v>0.07739752806405632</v>
       </c>
       <c r="E98">
-        <v>0.09070755955768593</v>
+        <v>0.02992304982558603</v>
       </c>
       <c r="F98">
-        <v>-0.09565636466707465</v>
+        <v>-0.160028994700951</v>
       </c>
       <c r="G98">
-        <v>-0.2416743538920576</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3560252824676126</v>
+      </c>
+      <c r="H98">
+        <v>0.3111328722494132</v>
+      </c>
+      <c r="I98">
+        <v>-0.09903709294795278</v>
+      </c>
+      <c r="J98">
+        <v>-0.08939444689626828</v>
+      </c>
+      <c r="K98">
+        <v>-0.2063743084390648</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.007604979295285665</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.0227534694192029</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.002813550032746677</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.002327765144011479</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.030587201469022</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.03866257468676311</v>
+      </c>
+      <c r="H99">
+        <v>-0.07165108432325855</v>
+      </c>
+      <c r="I99">
+        <v>0.01841156758241493</v>
+      </c>
+      <c r="J99">
+        <v>0.003577549919688856</v>
+      </c>
+      <c r="K99">
+        <v>-0.2041726967230532</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01926249235042404</v>
+        <v>-0.0141485242979973</v>
       </c>
       <c r="C101">
-        <v>-0.05418344997214533</v>
+        <v>-0.07525261441774217</v>
       </c>
       <c r="D101">
-        <v>-0.0214755145927816</v>
+        <v>0.04063621565467188</v>
       </c>
       <c r="E101">
-        <v>0.07647945274117958</v>
+        <v>0.04433311036163559</v>
       </c>
       <c r="F101">
-        <v>-0.03040242419044972</v>
+        <v>0.04153922842455842</v>
       </c>
       <c r="G101">
-        <v>-0.0684951085529775</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1272686899971496</v>
+      </c>
+      <c r="H101">
+        <v>-0.3006187870472246</v>
+      </c>
+      <c r="I101">
+        <v>0.05317352869578076</v>
+      </c>
+      <c r="J101">
+        <v>0.1899714249664762</v>
+      </c>
+      <c r="K101">
+        <v>-0.2567316612291516</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.01213138819986449</v>
+        <v>-0.004319236094082569</v>
       </c>
       <c r="C102">
-        <v>-0.0663863540741194</v>
+        <v>-0.02949479110055361</v>
       </c>
       <c r="D102">
-        <v>-0.02329877356248853</v>
+        <v>0.008071758323455419</v>
       </c>
       <c r="E102">
-        <v>-0.05465187428137949</v>
+        <v>0.01075484967666408</v>
       </c>
       <c r="F102">
-        <v>0.03148510794200085</v>
+        <v>-0.01774335161791379</v>
       </c>
       <c r="G102">
-        <v>-0.001779985941567401</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0351096364035421</v>
+      </c>
+      <c r="H102">
+        <v>-0.006992010320323581</v>
+      </c>
+      <c r="I102">
+        <v>0.01639491870098824</v>
+      </c>
+      <c r="J102">
+        <v>-0.009176968711162262</v>
+      </c>
+      <c r="K102">
+        <v>-0.01597683980987382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
